--- a/Selenium_Specflow/TestData/TestData.xlsx
+++ b/Selenium_Specflow/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramesh\Desktop\Selenium_SpecFlow\Selenium_Specflow\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramesh\Downloads\HA\HarperCollins_Assignment-master\Selenium_Specflow\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26420D-EC82-4A88-9BD3-8FEF4C12B482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012FB8A-E210-46C9-8446-C56C687F43C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="20475" windowHeight="10875" xr2:uid="{4F8B4AD0-B445-4CB1-AE95-92BA5A883A33}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>iphone</t>
   </si>
   <si>
-    <t>256GB</t>
-  </si>
-  <si>
     <t>TestPass1234</t>
   </si>
   <si>
@@ -73,16 +70,19 @@
     <t>DeliveryDates</t>
   </si>
   <si>
-    <t>New Apple iPhone 12 Mini</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>₹ 84,900.00</t>
-  </si>
-  <si>
-    <t>Wednesday, June 9</t>
+    <t>New Apple iPhone 12 Pro</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>128GB</t>
+  </si>
+  <si>
+    <t>₹ 1,26,000.00</t>
+  </si>
+  <si>
+    <t>Monday, June 14</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,13 +561,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>17</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
